--- a/reg/hr.xlsx
+++ b/reg/hr.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t xml:space="preserve">part</t>
   </si>
@@ -44,196 +44,193 @@
     <t xml:space="preserve">estimate</t>
   </si>
   <si>
-    <t xml:space="preserve">9.547***</t>
+    <t xml:space="preserve">0.148+</t>
   </si>
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">9.637***</t>
+    <t xml:space="preserve">-0.528</t>
   </si>
   <si>
     <t xml:space="preserve">std.error</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.798)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.049)</t>
+    <t xml:space="preserve">(0.080)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(6.454)</t>
   </si>
   <si>
     <t xml:space="preserve">LIDSD_INST</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.076+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.641)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.791)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.039)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.939)</t>
+    <t xml:space="preserve">-0.092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.068)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.153)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(5.396)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.932)</t>
   </si>
   <si>
     <t xml:space="preserve">LIDSD_LABOUR</t>
   </si>
   <si>
-    <t xml:space="preserve">0.097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.280)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.225)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.017)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.245)</t>
+    <t xml:space="preserve">-0.005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.029)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.036)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.395)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.536)</t>
   </si>
   <si>
     <t xml:space="preserve">LIDSD_BUSINESS</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.062***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.658**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.106)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.246)</t>
+    <t xml:space="preserve">-0.008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.011)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.031)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.885)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.151)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lGRP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.007)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.009)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.595)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.135)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lpop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.437***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.003)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.837)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lbudget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.010)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.911)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.196)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ltot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.217***</t>
   </si>
   <si>
     <t xml:space="preserve">(0.006)</t>
   </si>
   <si>
-    <t xml:space="preserve">lGRP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.049***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.072)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.038)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.004)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.043)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lpop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.032***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.102)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.099)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lbudget</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.111)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.037)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.024)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ltot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.158**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.164***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.214***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.056)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.003)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.035)</t>
+    <t xml:space="preserve">(0.461)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.016)</t>
   </si>
   <si>
     <t xml:space="preserve">gof</t>
@@ -242,31 +239,28 @@
     <t xml:space="preserve">Num.Obs.</t>
   </si>
   <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
     <t xml:space="preserve">40</t>
   </si>
   <si>
     <t xml:space="preserve">R2</t>
   </si>
   <si>
-    <t xml:space="preserve">0.592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.597</t>
+    <t xml:space="preserve">0.122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.006</t>
   </si>
   <si>
     <t xml:space="preserve">R2 Within</t>
   </si>
   <si>
-    <t xml:space="preserve">0.544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.521</t>
+    <t xml:space="preserve">0.314</t>
   </si>
 </sst>
 </file>
@@ -802,7 +796,7 @@
         <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
@@ -810,13 +804,13 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
         <v>44</v>
@@ -833,7 +827,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -885,16 +879,16 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
         <v>56</v>
       </c>
-      <c r="E13" t="s">
-        <v>39</v>
-      </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -908,16 +902,16 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
         <v>59</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>60</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>61</v>
-      </c>
-      <c r="G14" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="15">
@@ -931,16 +925,16 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
         <v>63</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
         <v>64</v>
-      </c>
-      <c r="F15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="16">
@@ -948,22 +942,22 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" t="s">
         <v>67</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>68</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>69</v>
-      </c>
-      <c r="G16" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="17">
@@ -971,39 +965,39 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
       </c>
       <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" t="s">
         <v>71</v>
       </c>
-      <c r="E17" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>72</v>
-      </c>
-      <c r="G17" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" t="s">
         <v>74</v>
-      </c>
-      <c r="B18" t="s">
-        <v>75</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F18" t="s">
         <v>76</v>
@@ -1014,7 +1008,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s">
         <v>77</v>
@@ -1032,15 +1026,15 @@
         <v>80</v>
       </c>
       <c r="G19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -1049,13 +1043,13 @@
         <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
